--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Minnesota_Timberwolves__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Minnesota_Timberwolves__.xlsx
@@ -588,79 +588,79 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>877</v>
+        <v>911</v>
       </c>
       <c r="G2" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="I2" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L2" t="n">
-        <v>0.341</v>
+        <v>0.347</v>
       </c>
       <c r="M2" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N2" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="O2" t="n">
-        <v>0.49</v>
+        <v>0.486</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
       <c r="Q2" t="n">
         <v>70</v>
       </c>
       <c r="R2" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S2" t="n">
-        <v>0.795</v>
+        <v>0.778</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V2" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W2" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="n">
         <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA2" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AB2" t="n">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>795</v>
+        <v>829</v>
       </c>
       <c r="G3" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H3" t="n">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="I3" t="n">
-        <v>0.505</v>
+        <v>0.509</v>
       </c>
       <c r="J3" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K3" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L3" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="M3" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N3" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="O3" t="n">
-        <v>0.533</v>
+        <v>0.538</v>
       </c>
       <c r="P3" t="n">
-        <v>0.582</v>
+        <v>0.586</v>
       </c>
       <c r="Q3" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="R3" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U3" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="V3" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="W3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X3" t="n">
         <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z3" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB3" t="n">
-        <v>558</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4">
@@ -852,43 +852,43 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="G5" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H5" t="n">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="I5" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="J5" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L5" t="n">
-        <v>0.335</v>
+        <v>0.34</v>
       </c>
       <c r="M5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
-        <v>0.418</v>
+        <v>0.414</v>
       </c>
       <c r="P5" t="n">
-        <v>0.481</v>
+        <v>0.485</v>
       </c>
       <c r="Q5" t="n">
         <v>16</v>
@@ -903,13 +903,13 @@
         <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="V5" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -918,13 +918,13 @@
         <v>4</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
@@ -940,22 +940,22 @@
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I6" t="n">
-        <v>0.539</v>
+        <v>0.538</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -967,16 +967,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N6" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O6" t="n">
-        <v>0.579</v>
+        <v>0.576</v>
       </c>
       <c r="P6" t="n">
-        <v>0.539</v>
+        <v>0.538</v>
       </c>
       <c r="Q6" t="n">
         <v>24</v>
@@ -988,31 +988,31 @@
         <v>0.828</v>
       </c>
       <c r="T6" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U6" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V6" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="W6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X6" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="n">
         <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AB6" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
@@ -1028,43 +1028,43 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
         <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="G7" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H7" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="I7" t="n">
-        <v>0.402</v>
+        <v>0.387</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L7" t="n">
-        <v>0.268</v>
+        <v>0.254</v>
       </c>
       <c r="M7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N7" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="P7" t="n">
-        <v>0.458</v>
+        <v>0.444</v>
       </c>
       <c r="Q7" t="n">
         <v>7</v>
@@ -1079,28 +1079,28 @@
         <v>34</v>
       </c>
       <c r="U7" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V7" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="W7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
         <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -1116,64 +1116,64 @@
         <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="G8" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H8" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="I8" t="n">
-        <v>0.458</v>
+        <v>0.483</v>
       </c>
       <c r="J8" t="n">
         <v>19</v>
       </c>
       <c r="K8" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L8" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N8" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="O8" t="n">
-        <v>0.588</v>
+        <v>0.633</v>
       </c>
       <c r="P8" t="n">
-        <v>0.547</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="Q8" t="n">
         <v>12</v>
       </c>
       <c r="R8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S8" t="n">
-        <v>0.706</v>
+        <v>0.667</v>
       </c>
       <c r="T8" t="n">
         <v>23</v>
       </c>
       <c r="U8" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V8" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W8" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X8" t="n">
         <v>14</v>
@@ -1182,13 +1182,13 @@
         <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB8" t="n">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -1204,79 +1204,79 @@
         <v>22</v>
       </c>
       <c r="D9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>380</v>
+      </c>
+      <c r="G9" t="n">
+        <v>78</v>
+      </c>
+      <c r="H9" t="n">
+        <v>164</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21</v>
+      </c>
+      <c r="K9" t="n">
+        <v>58</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="M9" t="n">
+        <v>57</v>
+      </c>
+      <c r="N9" t="n">
+        <v>106</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>34</v>
+      </c>
+      <c r="R9" t="n">
+        <v>48</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="T9" t="n">
+        <v>32</v>
+      </c>
+      <c r="U9" t="n">
+        <v>52</v>
+      </c>
+      <c r="V9" t="n">
+        <v>84</v>
+      </c>
+      <c r="W9" t="n">
+        <v>17</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
         <v>22</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>366</v>
-      </c>
-      <c r="G9" t="n">
-        <v>76</v>
-      </c>
-      <c r="H9" t="n">
-        <v>153</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="J9" t="n">
-        <v>20</v>
-      </c>
-      <c r="K9" t="n">
-        <v>54</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="Z9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA9" t="n">
         <v>56</v>
       </c>
-      <c r="N9" t="n">
-        <v>99</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>31</v>
-      </c>
-      <c r="R9" t="n">
-        <v>44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="T9" t="n">
-        <v>29</v>
-      </c>
-      <c r="U9" t="n">
-        <v>51</v>
-      </c>
-      <c r="V9" t="n">
-        <v>80</v>
-      </c>
-      <c r="W9" t="n">
-        <v>16</v>
-      </c>
-      <c r="X9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>55</v>
-      </c>
       <c r="AB9" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10">
@@ -1292,43 +1292,43 @@
         <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I10" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="J10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L10" t="n">
-        <v>0.279</v>
+        <v>0.299</v>
       </c>
       <c r="M10" t="n">
         <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O10" t="n">
-        <v>0.536</v>
+        <v>0.484</v>
       </c>
       <c r="P10" t="n">
-        <v>0.455</v>
+        <v>0.459</v>
       </c>
       <c r="Q10" t="n">
         <v>12</v>
@@ -1343,13 +1343,13 @@
         <v>11</v>
       </c>
       <c r="U10" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="V10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
@@ -1358,13 +1358,13 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -1380,43 +1380,43 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I11" t="n">
-        <v>0.318</v>
+        <v>0.34</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L11" t="n">
-        <v>0.167</v>
+        <v>0.25</v>
       </c>
       <c r="M11" t="n">
         <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11" t="n">
-        <v>0.423</v>
+        <v>0.407</v>
       </c>
       <c r="P11" t="n">
-        <v>0.352</v>
+        <v>0.394</v>
       </c>
       <c r="Q11" t="n">
         <v>10</v>
@@ -1428,13 +1428,13 @@
         <v>0.5</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W11" t="n">
         <v>16</v>
@@ -1446,13 +1446,13 @@
         <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -1468,79 +1468,79 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G12" t="n">
         <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I12" t="n">
-        <v>0.317</v>
+        <v>0.295</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12" t="n">
-        <v>0.211</v>
+        <v>0.2</v>
       </c>
       <c r="M12" t="n">
         <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O12" t="n">
-        <v>0.409</v>
+        <v>0.375</v>
       </c>
       <c r="P12" t="n">
-        <v>0.366</v>
+        <v>0.341</v>
       </c>
       <c r="Q12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>0.778</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="T12" t="n">
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
         <v>38</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -1556,43 +1556,43 @@
         <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G13" t="n">
         <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I13" t="n">
-        <v>0.333</v>
+        <v>0.296</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>0.143</v>
+        <v>0.111</v>
       </c>
       <c r="M13" t="n">
         <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O13" t="n">
-        <v>0.412</v>
+        <v>0.389</v>
       </c>
       <c r="P13" t="n">
-        <v>0.354</v>
+        <v>0.315</v>
       </c>
       <c r="Q13" t="n">
         <v>6</v>
@@ -1604,25 +1604,25 @@
         <v>0.857</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="n">
         <v>15</v>
@@ -1732,30 +1732,32 @@
         <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>0.714</v>
+        <v>0.625</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
@@ -1766,7 +1768,7 @@
         <v>0.714</v>
       </c>
       <c r="P15" t="n">
-        <v>0.714</v>
+        <v>0.625</v>
       </c>
       <c r="Q15" t="n">
         <v>7</v>
@@ -1818,31 +1820,31 @@
         <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3</v>
+        <v>0.273</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
@@ -1854,7 +1856,7 @@
         <v>0.333</v>
       </c>
       <c r="P16" t="n">
-        <v>0.35</v>
+        <v>0.318</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1867,10 +1869,10 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1980,77 +1982,77 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>5835</v>
+        <v>6075</v>
       </c>
       <c r="G18" t="n">
-        <v>944</v>
+        <v>982</v>
       </c>
       <c r="H18" t="n">
-        <v>2215</v>
+        <v>2310</v>
       </c>
       <c r="I18" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="J18" t="n">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="K18" t="n">
-        <v>1011</v>
+        <v>1058</v>
       </c>
       <c r="L18" t="n">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
       <c r="M18" t="n">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="N18" t="n">
-        <v>1204</v>
+        <v>1252</v>
       </c>
       <c r="O18" t="n">
-        <v>0.503</v>
+        <v>0.501</v>
       </c>
       <c r="P18" t="n">
         <v>0.502</v>
       </c>
       <c r="Q18" t="n">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="R18" t="n">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="S18" t="n">
-        <v>0.772</v>
+        <v>0.768</v>
       </c>
       <c r="T18" t="n">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="U18" t="n">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="V18" t="n">
-        <v>1103</v>
+        <v>1140</v>
       </c>
       <c r="W18" t="n">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="X18" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Y18" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z18" t="n">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="AA18" t="n">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="AB18" t="n">
-        <v>2592</v>
+        <v>2696</v>
       </c>
     </row>
   </sheetData>
